--- a/_data/XRPUSDT_4h.xlsx
+++ b/_data/XRPUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1085"/>
+  <dimension ref="A1:F1120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22101,6 +22101,706 @@
         <v>297994</v>
       </c>
     </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>0.5485</v>
+      </c>
+      <c r="C1086">
+        <v>0.5629</v>
+      </c>
+      <c r="D1086">
+        <v>0.5463</v>
+      </c>
+      <c r="E1086">
+        <v>0.5618</v>
+      </c>
+      <c r="F1086">
+        <v>47431744</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>0.5617</v>
+      </c>
+      <c r="C1087">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D1087">
+        <v>0.5603</v>
+      </c>
+      <c r="E1087">
+        <v>0.5615</v>
+      </c>
+      <c r="F1087">
+        <v>2608141</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>0.5667</v>
+      </c>
+      <c r="C1088">
+        <v>0.5682</v>
+      </c>
+      <c r="D1088">
+        <v>0.5653</v>
+      </c>
+      <c r="E1088">
+        <v>0.5663</v>
+      </c>
+      <c r="F1088">
+        <v>4516773</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>0.5648</v>
+      </c>
+      <c r="C1089">
+        <v>0.5687</v>
+      </c>
+      <c r="D1089">
+        <v>0.5645</v>
+      </c>
+      <c r="E1089">
+        <v>0.5665</v>
+      </c>
+      <c r="F1089">
+        <v>8198539</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>0.5665</v>
+      </c>
+      <c r="C1090">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="D1090">
+        <v>0.5625</v>
+      </c>
+      <c r="E1090">
+        <v>0.5692</v>
+      </c>
+      <c r="F1090">
+        <v>17674381</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>0.5693</v>
+      </c>
+      <c r="C1091">
+        <v>0.57</v>
+      </c>
+      <c r="D1091">
+        <v>0.5644</v>
+      </c>
+      <c r="E1091">
+        <v>0.5664</v>
+      </c>
+      <c r="F1091">
+        <v>12896839</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>0.5664</v>
+      </c>
+      <c r="C1092">
+        <v>0.5681</v>
+      </c>
+      <c r="D1092">
+        <v>0.5624</v>
+      </c>
+      <c r="E1092">
+        <v>0.5678</v>
+      </c>
+      <c r="F1092">
+        <v>11118572</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>0.5678</v>
+      </c>
+      <c r="C1093">
+        <v>0.5681</v>
+      </c>
+      <c r="D1093">
+        <v>0.5661</v>
+      </c>
+      <c r="E1093">
+        <v>0.5671</v>
+      </c>
+      <c r="F1093">
+        <v>2299466</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>0.5662</v>
+      </c>
+      <c r="C1094">
+        <v>0.5667</v>
+      </c>
+      <c r="D1094">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="E1094">
+        <v>0.5608</v>
+      </c>
+      <c r="F1094">
+        <v>11925034</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>0.5607</v>
+      </c>
+      <c r="C1095">
+        <v>0.5607</v>
+      </c>
+      <c r="D1095">
+        <v>0.553</v>
+      </c>
+      <c r="E1095">
+        <v>0.5591</v>
+      </c>
+      <c r="F1095">
+        <v>16206420</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="C1096">
+        <v>0.5603</v>
+      </c>
+      <c r="D1096">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="E1096">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="F1096">
+        <v>4666214</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>0.5581</v>
+      </c>
+      <c r="C1097">
+        <v>0.5589</v>
+      </c>
+      <c r="D1097">
+        <v>0.5515</v>
+      </c>
+      <c r="E1097">
+        <v>0.5565</v>
+      </c>
+      <c r="F1097">
+        <v>22094783</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>0.5566</v>
+      </c>
+      <c r="C1098">
+        <v>0.5583</v>
+      </c>
+      <c r="D1098">
+        <v>0.5558</v>
+      </c>
+      <c r="E1098">
+        <v>0.5558</v>
+      </c>
+      <c r="F1098">
+        <v>2045733</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>0.5595</v>
+      </c>
+      <c r="C1099">
+        <v>0.5619</v>
+      </c>
+      <c r="D1099">
+        <v>0.5553</v>
+      </c>
+      <c r="E1099">
+        <v>0.5579</v>
+      </c>
+      <c r="F1099">
+        <v>5416155</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>0.5471</v>
+      </c>
+      <c r="C1100">
+        <v>0.5508</v>
+      </c>
+      <c r="D1100">
+        <v>0.5463</v>
+      </c>
+      <c r="E1100">
+        <v>0.5501</v>
+      </c>
+      <c r="F1100">
+        <v>30593301</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>0.5501</v>
+      </c>
+      <c r="C1101">
+        <v>0.5511</v>
+      </c>
+      <c r="D1101">
+        <v>0.5443</v>
+      </c>
+      <c r="E1101">
+        <v>0.5463</v>
+      </c>
+      <c r="F1101">
+        <v>34732817</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>0.5463</v>
+      </c>
+      <c r="C1102">
+        <v>0.5574</v>
+      </c>
+      <c r="D1102">
+        <v>0.5455</v>
+      </c>
+      <c r="E1102">
+        <v>0.5562</v>
+      </c>
+      <c r="F1102">
+        <v>24537945</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>0.5548999999999999</v>
+      </c>
+      <c r="C1103">
+        <v>0.5561</v>
+      </c>
+      <c r="D1103">
+        <v>0.554</v>
+      </c>
+      <c r="E1103">
+        <v>0.5547</v>
+      </c>
+      <c r="F1103">
+        <v>5216991</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>0.5582</v>
+      </c>
+      <c r="C1104">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="D1104">
+        <v>0.5555</v>
+      </c>
+      <c r="E1104">
+        <v>0.5679</v>
+      </c>
+      <c r="F1104">
+        <v>22420724</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>0.5678</v>
+      </c>
+      <c r="C1105">
+        <v>0.5679</v>
+      </c>
+      <c r="D1105">
+        <v>0.5656</v>
+      </c>
+      <c r="E1105">
+        <v>0.5671</v>
+      </c>
+      <c r="F1105">
+        <v>2857569</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>0.5677</v>
+      </c>
+      <c r="C1106">
+        <v>0.5724</v>
+      </c>
+      <c r="D1106">
+        <v>0.5656</v>
+      </c>
+      <c r="E1106">
+        <v>0.5667</v>
+      </c>
+      <c r="F1106">
+        <v>24133935</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>0.5666</v>
+      </c>
+      <c r="C1107">
+        <v>0.5695</v>
+      </c>
+      <c r="D1107">
+        <v>0.5649</v>
+      </c>
+      <c r="E1107">
+        <v>0.5692</v>
+      </c>
+      <c r="F1107">
+        <v>31112117</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="C1108">
+        <v>0.5724</v>
+      </c>
+      <c r="D1108">
+        <v>0.5658</v>
+      </c>
+      <c r="E1108">
+        <v>0.5701000000000001</v>
+      </c>
+      <c r="F1108">
+        <v>30808267</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>0.57</v>
+      </c>
+      <c r="C1109">
+        <v>0.5723</v>
+      </c>
+      <c r="D1109">
+        <v>0.5571</v>
+      </c>
+      <c r="E1109">
+        <v>0.5593</v>
+      </c>
+      <c r="F1109">
+        <v>50553028</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>0.5592</v>
+      </c>
+      <c r="C1110">
+        <v>0.5659</v>
+      </c>
+      <c r="D1110">
+        <v>0.5586</v>
+      </c>
+      <c r="E1110">
+        <v>0.5659</v>
+      </c>
+      <c r="F1110">
+        <v>25331286</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>0.5659</v>
+      </c>
+      <c r="C1111">
+        <v>0.5677</v>
+      </c>
+      <c r="D1111">
+        <v>0.5565</v>
+      </c>
+      <c r="E1111">
+        <v>0.5572</v>
+      </c>
+      <c r="F1111">
+        <v>17842850</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>0.5572</v>
+      </c>
+      <c r="C1112">
+        <v>0.5604</v>
+      </c>
+      <c r="D1112">
+        <v>0.5326</v>
+      </c>
+      <c r="E1112">
+        <v>0.553</v>
+      </c>
+      <c r="F1112">
+        <v>95792961</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>0.553</v>
+      </c>
+      <c r="C1113">
+        <v>0.5556</v>
+      </c>
+      <c r="D1113">
+        <v>0.5497</v>
+      </c>
+      <c r="E1113">
+        <v>0.5545</v>
+      </c>
+      <c r="F1113">
+        <v>33550540</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>0.5546</v>
+      </c>
+      <c r="C1114">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="D1114">
+        <v>0.549</v>
+      </c>
+      <c r="E1114">
+        <v>0.5505</v>
+      </c>
+      <c r="F1114">
+        <v>43266166</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>0.5505</v>
+      </c>
+      <c r="C1115">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D1115">
+        <v>0.5472</v>
+      </c>
+      <c r="E1115">
+        <v>0.5621</v>
+      </c>
+      <c r="F1115">
+        <v>58081896</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>0.5621</v>
+      </c>
+      <c r="C1116">
+        <v>0.5648</v>
+      </c>
+      <c r="D1116">
+        <v>0.5564</v>
+      </c>
+      <c r="E1116">
+        <v>0.5567</v>
+      </c>
+      <c r="F1116">
+        <v>22582496</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>0.5578</v>
+      </c>
+      <c r="C1117">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="D1117">
+        <v>0.5574</v>
+      </c>
+      <c r="E1117">
+        <v>0.5578</v>
+      </c>
+      <c r="F1117">
+        <v>118795</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1118">
+        <v>0.5579</v>
+      </c>
+      <c r="C1118">
+        <v>0.5598</v>
+      </c>
+      <c r="D1118">
+        <v>0.5517</v>
+      </c>
+      <c r="E1118">
+        <v>0.5528</v>
+      </c>
+      <c r="F1118">
+        <v>29278558</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1119">
+        <v>0.5528999999999999</v>
+      </c>
+      <c r="C1119">
+        <v>0.5547</v>
+      </c>
+      <c r="D1119">
+        <v>0.5499000000000001</v>
+      </c>
+      <c r="E1119">
+        <v>0.5535</v>
+      </c>
+      <c r="F1119">
+        <v>35982005</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1120">
+        <v>0.5535</v>
+      </c>
+      <c r="C1120">
+        <v>0.5547</v>
+      </c>
+      <c r="D1120">
+        <v>0.5498</v>
+      </c>
+      <c r="E1120">
+        <v>0.55</v>
+      </c>
+      <c r="F1120">
+        <v>6988366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
